--- a/src/main/resources/easyexcel/out/easy_excel_fill_export_horizontal.xlsx
+++ b/src/main/resources/easyexcel/out/easy_excel_fill_export_horizontal.xlsx
@@ -86,7 +86,7 @@
     <t>张三9</t>
   </si>
   <si>
-    <t>时间:2020-11-04 13:46:07</t>
+    <t>时间:2021-12-29 10:09:22</t>
   </si>
 </sst>
 </file>
